--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H2">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I2">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J2">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>29.569551033612</v>
+        <v>9.672597074357778</v>
       </c>
       <c r="R2">
-        <v>266.125959302508</v>
+        <v>87.05337366921999</v>
       </c>
       <c r="S2">
-        <v>0.02722275964059007</v>
+        <v>0.06953189416232841</v>
       </c>
       <c r="T2">
-        <v>0.03970831338483275</v>
+        <v>0.07890881056918754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>19.11852658810933</v>
+        <v>4.442345544454668</v>
       </c>
       <c r="R3">
-        <v>172.066739292984</v>
+        <v>39.98110990009201</v>
       </c>
       <c r="S3">
-        <v>0.01760118215520824</v>
+        <v>0.03193399847579424</v>
       </c>
       <c r="T3">
-        <v>0.02567385769076956</v>
+        <v>0.03624054639674135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>1.124665297252222</v>
+        <v>0.3595398533614445</v>
       </c>
       <c r="R4">
-        <v>10.12198767527</v>
+        <v>3.235858680253</v>
       </c>
       <c r="S4">
-        <v>0.001035406084739263</v>
+        <v>0.002584568222875851</v>
       </c>
       <c r="T4">
-        <v>0.001510288811134585</v>
+        <v>0.00293311733786403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H5">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I5">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J5">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>4.692822051503333</v>
+        <v>0.6003816345668335</v>
       </c>
       <c r="R5">
-        <v>28.15693230902</v>
+        <v>3.602289807401001</v>
       </c>
       <c r="S5">
-        <v>0.004320375598497237</v>
+        <v>0.004315870076132427</v>
       </c>
       <c r="T5">
-        <v>0.004201259790711261</v>
+        <v>0.003265265802421458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H6">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I6">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J6">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>2.210628655003555</v>
+        <v>0.2045229382984445</v>
       </c>
       <c r="R6">
-        <v>19.895657895032</v>
+        <v>1.840706444686</v>
       </c>
       <c r="S6">
-        <v>0.002035181814609094</v>
+        <v>0.001470222236097855</v>
       </c>
       <c r="T6">
-        <v>0.002968605621052268</v>
+        <v>0.001668493132834971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>35.577658038792</v>
+        <v>50.08616796144888</v>
       </c>
       <c r="R7">
-        <v>320.198922349128</v>
+        <v>450.7755116530399</v>
       </c>
       <c r="S7">
-        <v>0.03275403242559256</v>
+        <v>0.3600466454789545</v>
       </c>
       <c r="T7">
-        <v>0.04777647091418142</v>
+        <v>0.4086017343040099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J8">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>23.00313590774934</v>
@@ -948,10 +948,10 @@
         <v>207.028223169744</v>
       </c>
       <c r="S8">
-        <v>0.0211774889339601</v>
+        <v>0.165359065310335</v>
       </c>
       <c r="T8">
-        <v>0.030890415901835</v>
+        <v>0.1876590206216552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J9">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>1.353181091868889</v>
+        <v>1.861751641866222</v>
       </c>
       <c r="R9">
-        <v>12.17862982682</v>
+        <v>16.755764776796</v>
       </c>
       <c r="S9">
-        <v>0.001245785692595218</v>
+        <v>0.01338328446058819</v>
       </c>
       <c r="T9">
-        <v>0.001817157751271965</v>
+        <v>0.0151881243998422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J10">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>5.646335921553333</v>
+        <v>3.108866745788667</v>
       </c>
       <c r="R10">
-        <v>33.87801552932</v>
+        <v>18.653200474732</v>
       </c>
       <c r="S10">
-        <v>0.005198213712063252</v>
+        <v>0.02234822683827264</v>
       </c>
       <c r="T10">
-        <v>0.005054895287255019</v>
+        <v>0.01690803929509439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J11">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>2.659796567390222</v>
+        <v>1.059050652150222</v>
       </c>
       <c r="R11">
-        <v>23.938169106512</v>
+        <v>9.531455869352</v>
       </c>
       <c r="S11">
-        <v>0.002448701455244443</v>
+        <v>0.007613032703809116</v>
       </c>
       <c r="T11">
-        <v>0.003571783539012093</v>
+        <v>0.008639709340859215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H12">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I12">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J12">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>501.157582008228</v>
+        <v>28.30478753309666</v>
       </c>
       <c r="R12">
-        <v>3006.945492049368</v>
+        <v>169.82872519858</v>
       </c>
       <c r="S12">
-        <v>0.4613831431380641</v>
+        <v>0.2034702237577846</v>
       </c>
       <c r="T12">
-        <v>0.4486624838942617</v>
+        <v>0.1539398433519828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H13">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I13">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J13">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>324.029084701544</v>
+        <v>12.999574552498</v>
       </c>
       <c r="R13">
-        <v>1944.174508209264</v>
+        <v>77.99744731498799</v>
       </c>
       <c r="S13">
-        <v>0.2983124728327344</v>
+        <v>0.09344801969843275</v>
       </c>
       <c r="T13">
-        <v>0.2900877871858516</v>
+        <v>0.07070014102434177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H14">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I14">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J14">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>19.06131548290333</v>
+        <v>1.052116518536167</v>
       </c>
       <c r="R14">
-        <v>114.36789289742</v>
+        <v>6.312699111216999</v>
       </c>
       <c r="S14">
-        <v>0.0175485116170582</v>
+        <v>0.007563186375997308</v>
       </c>
       <c r="T14">
-        <v>0.01706468675298052</v>
+        <v>0.005722093898853996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H15">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I15">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J15">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>79.53598448123</v>
+        <v>1.75688850414725</v>
       </c>
       <c r="R15">
-        <v>318.14393792492</v>
+        <v>7.027554016589</v>
       </c>
       <c r="S15">
-        <v>0.07322360038030454</v>
+        <v>0.01262947113234208</v>
       </c>
       <c r="T15">
-        <v>0.0474698493214166</v>
+        <v>0.006370068215470266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H16">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I16">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J16">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>37.46669370124533</v>
+        <v>0.5984926560756667</v>
       </c>
       <c r="R16">
-        <v>224.800162207472</v>
+        <v>3.590955936454</v>
       </c>
       <c r="S16">
-        <v>0.03449314451873916</v>
+        <v>0.004302291070254997</v>
       </c>
       <c r="T16">
-        <v>0.03354214415343362</v>
+        <v>0.003254992308840718</v>
       </c>
     </row>
   </sheetData>
